--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from openconceptlab.o" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:15:00+00:00</t>
+    <t>2023-02-16T13:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Value-set for ARV treatment plan outcomes</t>
+    <t>ARV treatment plan outcomes</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -99,10 +102,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>162572</t>
-  </si>
-  <si>
-    <t>Date patient refused HIV care/treatment</t>
+    <t>105480006</t>
+  </si>
+  <si>
+    <t>Procedure declined by patient (situation)</t>
   </si>
   <si>
     <t/>
@@ -111,7 +114,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://openconceptlab.org</t>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -307,66 +310,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -388,34 +393,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:21:24+00:00</t>
+    <t>2023-02-16T13:29:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T13:29:44+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-16T14:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:44:06+00:00</t>
+    <t>2023-02-16T14:49:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:49:30+00:00</t>
+    <t>2023-02-16T14:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:51:09+00:00</t>
+    <t>2023-02-16T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:57:31+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T04:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T04:54:17+00:00</t>
+    <t>2023-02-17T05:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:00:13+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:03:48+00:00</t>
+    <t>2023-02-17T06:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:10:41+00:00</t>
+    <t>2023-02-17T06:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:12:18+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ARV treatment plan outcomes</t>
+    <t>A list of possible ARV treatment outcomes.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T10:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:01:01+00:00</t>
+    <t>2023-02-27T10:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:21:42+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-02T12:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T12:52:23+00:00</t>
+    <t>2023-03-02T15:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:41:19+00:00</t>
+    <t>2023-03-02T15:42:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:42:08+00:00</t>
+    <t>2023-03-03T07:02:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:02:32+00:00</t>
+    <t>2023-03-03T07:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:03+00:00</t>
+    <t>2023-03-03T07:18:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:54+00:00</t>
+    <t>2023-03-03T08:26:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:26:44+00:00</t>
+    <t>2023-03-03T08:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:27:27+00:00</t>
+    <t>2023-03-03T09:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T09:39:05+00:00</t>
+    <t>2023-03-03T10:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:18:33+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T13:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:05:10+00:00</t>
+    <t>2023-03-03T13:27:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,10 +102,16 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>105480006</t>
-  </si>
-  <si>
-    <t>Procedure declined by patient (situation)</t>
+    <t>737038009</t>
+  </si>
+  <si>
+    <t>Declined consent for treatment (finding)</t>
+  </si>
+  <si>
+    <t>386473003</t>
+  </si>
+  <si>
+    <t>Telephone follow-up (procedure)</t>
   </si>
   <si>
     <t/>
@@ -381,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,15 +418,23 @@
         <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:27:32+00:00</t>
+    <t>2023-03-03T13:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:45:50+00:00</t>
+    <t>2023-03-03T13:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:55:36+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:42:03+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T14:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:55:13+00:00</t>
+    <t>2023-03-03T15:04:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:04:29+00:00</t>
+    <t>2023-03-03T15:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:12:51+00:00</t>
+    <t>2023-03-03T15:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:20:32+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:03:55+00:00</t>
+    <t>2023-03-03T16:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:05:54+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T08:04:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:23+00:00</t>
+    <t>2023-03-04T08:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:06:02+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T14:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:13:00+00:00</t>
+    <t>2023-03-07T14:55:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:55:06+00:00</t>
+    <t>2023-03-07T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:05+00:00</t>
+    <t>2023-03-07T15:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:58:21+00:00</t>
+    <t>2023-03-07T16:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:00:01+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T16:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:32:06+00:00</t>
+    <t>2023-03-07T16:55:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:55:29+00:00</t>
+    <t>2023-03-07T17:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:01:20+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T14:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:51:34+00:00</t>
+    <t>2023-03-08T14:57:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:57:07+00:00</t>
+    <t>2023-03-08T15:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:19:16+00:00</t>
+    <t>2023-03-08T15:22:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:22:38+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-03-10T12:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T12:01:47+00:00</t>
+    <t>2023-04-04T10:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:48:36+00:00</t>
+    <t>2023-04-04T10:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:48:52+00:00</t>
+    <t>2023-04-04T10:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-careplan-outcome.xlsx
+++ b/ValueSet-vs-careplan-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:54:41+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
